--- a/Client2D/Bin/Data/MapData.xlsx
+++ b/Client2D/Bin/Data/MapData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C++_Client\MapleStory_DX11\Client2D\Bin\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F95EE6DB-30DF-44E5-B447-68907D6FC6B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E520D6-0F18-4B60-A81A-1D374A521FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{5FCC64FB-6413-4780-98ED-AA69A54390BA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{5FCC64FB-6413-4780-98ED-AA69A54390BA}"/>
   </bookViews>
   <sheets>
     <sheet name="OffSet게산" sheetId="2" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Seolhuiuibang" sheetId="3" r:id="rId3"/>
     <sheet name="또다른 문" sheetId="5" r:id="rId4"/>
     <sheet name="신전 입구" sheetId="4" r:id="rId5"/>
+    <sheet name="발록제단입구" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="16">
   <si>
     <t>countX</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -661,7 +662,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6618B1-4ADF-4877-BC08-DF11D64A71AF}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -805,4 +806,75 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDEF15E-CD38-42AF-AA72-2C83DF0DE985}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>1960</v>
+      </c>
+      <c r="C2">
+        <v>55</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>980</v>
+      </c>
+      <c r="I2">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Client2D/Bin/Data/MapData.xlsx
+++ b/Client2D/Bin/Data/MapData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\C++_Client\MapleStory_DX11\Client2D\Bin\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E520D6-0F18-4B60-A81A-1D374A521FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0753D0A-06F6-44F7-BF12-0EB81857FFAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{5FCC64FB-6413-4780-98ED-AA69A54390BA}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8964" activeTab="5" xr2:uid="{5FCC64FB-6413-4780-98ED-AA69A54390BA}"/>
   </bookViews>
   <sheets>
     <sheet name="OffSet게산" sheetId="2" r:id="rId1"/>
@@ -813,7 +813,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -849,7 +849,7 @@
         <v>13</v>
       </c>
       <c r="B2">
-        <v>1960</v>
+        <v>1980</v>
       </c>
       <c r="C2">
         <v>55</v>
@@ -867,7 +867,7 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>980</v>
+        <v>960</v>
       </c>
       <c r="I2">
         <v>55</v>
